--- a/project/uploads/93/split_output/20斜楔.xlsx
+++ b/project/uploads/93/split_output/20斜楔.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECD8BF0-BBAF-4B4B-892F-0D01F042407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9BA359-1B50-47C9-AAD2-0D40B4998138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D974DA41-A2BA-46C0-94F2-9D543EC98AE7}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{9C289DB9-B548-4421-A91B-2999A7FCD939}"/>
   </bookViews>
   <sheets>
     <sheet name="20斜楔" sheetId="1" r:id="rId1"/>
@@ -2692,8 +2692,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="2" xr:uid="{27D3A49E-B6F8-4A3E-A841-FA3C1CBAAF1F}"/>
-    <cellStyle name="常规 6 2" xfId="3" xr:uid="{9EB37755-C077-4CBF-8D40-952491D2630A}"/>
+    <cellStyle name="常规 6" xfId="2" xr:uid="{1FBD82BC-4FA2-42DE-8596-9484E4C8BA11}"/>
+    <cellStyle name="常规 6 2" xfId="3" xr:uid="{1722B356-F49C-4F11-BDCE-8867530D9B06}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2729,7 +2729,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085FA1ED-2BCE-4C63-8D55-CA1859BCA138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4A2285-815B-4556-B57D-FE1A083F3928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,8 +2745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1645285" y="26073100"/>
-          <a:ext cx="983615" cy="1343660"/>
+          <a:off x="1644015" y="26582370"/>
+          <a:ext cx="983615" cy="1379220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +2777,7 @@
         <xdr:cNvPr id="3" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C985764-4932-4962-8765-17BD2D32E049}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB48B75D-CD41-4961-9DA1-7EE2310EF53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,8 +2794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463375" y="26239866"/>
-          <a:ext cx="1160393" cy="1189816"/>
+          <a:off x="5462105" y="26754216"/>
+          <a:ext cx="1160393" cy="1220296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2829,7 +2829,7 @@
         <xdr:cNvPr id="4" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A96886-9C0D-4219-AB52-E9107E5A16BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FBD916-90EF-401A-B8B8-E7D62AF2097E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,8 +2846,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685674" y="4062124"/>
-          <a:ext cx="373729" cy="848801"/>
+          <a:off x="1684404" y="4091334"/>
+          <a:ext cx="373729" cy="869121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,7 +2881,7 @@
         <xdr:cNvPr id="5" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9338B23C-0C64-439D-B3AE-879B93C5BC3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B54709-6AC0-4608-8256-46ED9C91768C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,8 +2898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3565000" y="4054667"/>
-          <a:ext cx="1299599" cy="748583"/>
+          <a:off x="3563730" y="4083877"/>
+          <a:ext cx="1299599" cy="768903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,7 +2933,7 @@
         <xdr:cNvPr id="6" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF19777D-D6D6-4B20-A035-A79CB50B0511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132A1D40-153D-48F4-9594-A006C022C1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,8 +2941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1398933" y="21627134"/>
-          <a:ext cx="2428875" cy="984388"/>
+          <a:off x="1397828" y="22183725"/>
+          <a:ext cx="2428875" cy="1011997"/>
           <a:chOff x="1352550" y="10248900"/>
           <a:chExt cx="2427890" cy="986331"/>
         </a:xfrm>
@@ -2952,7 +2952,7 @@
           <xdr:cNvPr id="7" name="Picture 14" descr="36-3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D2F6E-C170-E7B9-1EFA-9CE03DE9E0BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6067C457-7F63-B58F-78C0-66FAB8277558}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2992,7 +2992,7 @@
           <xdr:cNvPr id="8" name="Text Box 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB962528-BE6E-6203-6470-0AE09B4E8CE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3361AE8C-2C21-CCCB-1FE8-AC0D33F477C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="9" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81D6D68-29BA-42B8-827F-F10FACDC6D0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A3AB02-5899-4CDB-9904-C8AB4D5BFE47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,8 +3097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1522095" y="23267670"/>
-          <a:ext cx="1266825" cy="887731"/>
+          <a:off x="1520825" y="23736300"/>
+          <a:ext cx="1266825" cy="908051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3132,7 +3132,7 @@
         <xdr:cNvPr id="10" name="Picture 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4DE830-5292-4A52-89A9-A64A26E03027}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1949F7-691B-4664-BE20-955E82F1F73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,8 +3149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9302115" y="22564725"/>
-          <a:ext cx="1524000" cy="1609725"/>
+          <a:off x="9299575" y="23015575"/>
+          <a:ext cx="1524000" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="11" name="Line 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB904E1-AE84-4BCA-990A-5609086EB19F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A0AF43-F6C1-4400-97EF-E53072B5A2E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,8 +3194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10045065" y="22593300"/>
-          <a:ext cx="9525" cy="977265"/>
+          <a:off x="10042525" y="23044150"/>
+          <a:ext cx="9525" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3231,7 +3231,7 @@
         <xdr:cNvPr id="12" name="Line 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A46D64-8DDD-4581-8735-C6DC0A4CED57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0A2615-55EE-4F68-A21C-424F71D2D2F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,8 +3241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10092690" y="22839045"/>
-          <a:ext cx="704850" cy="306705"/>
+          <a:off x="10090150" y="23294975"/>
+          <a:ext cx="704850" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3277,7 +3277,7 @@
         <xdr:cNvPr id="13" name="Oval 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE1D4AE-CBBF-4A01-B436-CF2A5C0A4008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CE433A-B136-48E6-BA0C-B97AFF30F815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,8 +3287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10795891" y="22531795"/>
-          <a:ext cx="909145" cy="631090"/>
+          <a:off x="10793351" y="22977565"/>
+          <a:ext cx="909145" cy="648870"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3367,7 +3367,7 @@
         <xdr:cNvPr id="14" name="Oval 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A801C87B-3BCA-452A-AC24-6EB2C8897AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B89A2D-906B-4AC3-913A-C7190C5CFDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,8 +3377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10862566" y="23172410"/>
-          <a:ext cx="778422" cy="657504"/>
+          <a:off x="10860026" y="23635960"/>
+          <a:ext cx="778422" cy="672744"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3457,7 +3457,7 @@
         <xdr:cNvPr id="15" name="Line 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647A3F8C-8FE5-4502-ACBD-3852BEC8B972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5F5F94-1E78-4F0D-9C42-FE7A908CECB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,8 +3467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10197465" y="23448645"/>
-          <a:ext cx="666750" cy="121920"/>
+          <a:off x="10194925" y="23917275"/>
+          <a:ext cx="666750" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="16" name="Group 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930EC70E-463B-41C1-A069-B27A8BD3E9AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1640373D-8D9D-4BF9-AA22-9A78A79BD88C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,8 +3511,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3294408" y="23250111"/>
-          <a:ext cx="2581275" cy="890380"/>
+          <a:off x="3293303" y="23850876"/>
+          <a:ext cx="2581275" cy="912467"/>
           <a:chOff x="361" y="584"/>
           <a:chExt cx="272" cy="92"/>
         </a:xfrm>
@@ -3522,7 +3522,7 @@
           <xdr:cNvPr id="17" name="Group 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C371F2F-37D0-0D67-7429-61C3AE43DADD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C5E28F-2F04-9915-805B-C0DE9A7DA3D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3541,7 +3541,7 @@
             <xdr:cNvPr id="26" name="Picture 11" descr="36-3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3E7F5A-FB77-EBA8-F0DE-EF6ADE67A3D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9359CB2-01D0-C320-490A-EFF93BD33E97}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
             <xdr:cNvPr id="27" name="Picture 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE991240-CAA0-423D-4B02-A4AB2F61B2EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E65E82-F728-4CDB-1380-0F7ACAB16C73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3619,7 +3619,7 @@
           <xdr:cNvPr id="18" name="Group 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2326FAE6-A9BE-CEB6-2656-C42929A5848F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595C0B3C-B59C-87A3-3B86-0FFEFBD39177}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3638,7 +3638,7 @@
             <xdr:cNvPr id="23" name="Picture 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0570FE6-C20C-C3D0-12F6-E57F024EB043}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C07FFFD-3428-F33B-ADAE-7BDF785C4F3B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
             <xdr:cNvPr id="24" name="Line 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB5052-27F0-2730-31B3-30A0C6F69946}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3D02B3-72F4-630F-2FA6-F5661A053BD6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3705,7 +3705,7 @@
             <xdr:cNvPr id="25" name="Line 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC9C597-328B-B1B6-612F-2C22D78ABE2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB174A08-AB3B-69BF-2A53-85C72A0EB0B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3736,7 +3736,7 @@
           <xdr:cNvPr id="19" name="Group 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AF2C86-6B4F-0816-F6E5-E2586D4B1D97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E746B36-6031-0649-F205-DB41769B86A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3755,7 +3755,7 @@
             <xdr:cNvPr id="20" name="Picture 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDF7BFA-AD40-01B0-FE2E-F51518EDB5FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0B291E-504B-9F4A-D424-90C976B0742B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3792,7 +3792,7 @@
             <xdr:cNvPr id="21" name="Line 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D8A291-6C8C-57D2-6C3A-23562726B767}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211188DF-EDDF-AD14-631F-004A15D6A0F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3822,7 +3822,7 @@
             <xdr:cNvPr id="22" name="Line 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EFCEF4-8969-2569-BF85-E3278E7A0F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C266FD34-899E-B135-5678-E7FF0DA79FCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3869,7 +3869,7 @@
         <xdr:cNvPr id="28" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABBDAD0-95EB-4BBA-B7DA-76C4678AD1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA3A5DB-845C-4FAD-8764-8F865E8C74C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3886,8 +3886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="31186755"/>
-          <a:ext cx="1933575" cy="1000125"/>
+          <a:off x="1368425" y="31823025"/>
+          <a:ext cx="1933575" cy="1025525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3921,7 +3921,7 @@
         <xdr:cNvPr id="29" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A06DEBF-55A0-4A75-B104-AEAE38BF74BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991CA65F-9E05-45A6-9FEB-4BA77D6CA228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,8 +3938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5408295" y="31234380"/>
-          <a:ext cx="1857375" cy="1009650"/>
+          <a:off x="5407025" y="31870650"/>
+          <a:ext cx="1857375" cy="1035050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3973,7 +3973,7 @@
         <xdr:cNvPr id="30" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C387F156-6E13-4EFA-B3CB-5132B678B291}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7F7329-9462-4EC1-B4ED-D2956161AFD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,8 +3990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="31224855"/>
-          <a:ext cx="1752600" cy="1009650"/>
+          <a:off x="3425825" y="31861125"/>
+          <a:ext cx="1752600" cy="1035050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="31" name="Picture 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89484556-9917-4E04-9DF5-85ABD12CFB48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE82DA02-9487-4A5B-96E8-6F0F7D95DB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4042,8 +4042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7759065" y="22564725"/>
-          <a:ext cx="1419225" cy="1666875"/>
+          <a:off x="7756525" y="23015575"/>
+          <a:ext cx="1419225" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4077,7 +4077,7 @@
         <xdr:cNvPr id="32" name="Line 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2338D22E-79EA-46D1-9D4D-BF5479189EC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0579312F-2A0F-49D6-8F65-BD450683D004}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8330565" y="22938105"/>
+          <a:off x="8328025" y="23396575"/>
           <a:ext cx="190500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4122,7 +4122,7 @@
         <xdr:cNvPr id="33" name="Line 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6E7B2D-5AA9-4114-BBED-489568B17059}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75669A5-5702-406C-A699-EC32CAE19981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8378190" y="23014305"/>
+          <a:off x="8375650" y="23472775"/>
           <a:ext cx="152400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4167,7 +4167,7 @@
         <xdr:cNvPr id="34" name="Line 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140CD313-4A67-4031-963C-4AF83819315A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3001D-E927-4797-82DE-993402E80C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4177,8 +4177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8454390" y="22781895"/>
-          <a:ext cx="0" cy="421005"/>
+          <a:off x="8451850" y="23237825"/>
+          <a:ext cx="0" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4212,7 +4212,7 @@
         <xdr:cNvPr id="35" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CB2F15-AF67-467A-A374-7EFF3F62ACA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0665B3AE-738F-429A-A564-711A293A7BDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,8 +4222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8600457" y="22685326"/>
-          <a:ext cx="520985" cy="225566"/>
+          <a:off x="8597917" y="23136176"/>
+          <a:ext cx="520985" cy="233186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4279,7 +4279,7 @@
         <xdr:cNvPr id="36" name="组合 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027D783B-3F7E-4795-BB25-DA960DCCB4BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECFABAD-6935-41DF-8B14-B590D8C7EDEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,8 +4287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1303683" y="44578657"/>
-          <a:ext cx="2524125" cy="1154595"/>
+          <a:off x="1302578" y="45664230"/>
+          <a:ext cx="2524125" cy="1187727"/>
           <a:chOff x="1304925" y="27793950"/>
           <a:chExt cx="2524125" cy="1079596"/>
         </a:xfrm>
@@ -4298,7 +4298,7 @@
           <xdr:cNvPr id="37" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79C4277-CD82-A453-1938-B8F82B86D79B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47459167-7D8B-F4D2-E701-F355C4EF8DB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4335,7 +4335,7 @@
           <xdr:cNvPr id="38" name="矩形 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D70F3E5-873F-E728-9251-EF25629ABCEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016DF794-9D09-4656-E768-458EAD56C203}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4396,7 +4396,7 @@
         <xdr:cNvPr id="39" name="组合 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E6B740-79B0-43D1-8DC9-58DD6696CCFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629096A9-C7CB-4F15-8E48-87BDCD36AFA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,8 +4404,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4037358" y="44578657"/>
-          <a:ext cx="2857500" cy="1154595"/>
+          <a:off x="4036253" y="45664230"/>
+          <a:ext cx="2857500" cy="1187727"/>
           <a:chOff x="4043362" y="27793951"/>
           <a:chExt cx="2852401" cy="1071564"/>
         </a:xfrm>
@@ -4415,7 +4415,7 @@
           <xdr:cNvPr id="40" name="Picture 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7724E063-44E9-7DC2-7AF5-1F07669DD75A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21C19D5-52D6-7EC1-26D1-6C5B8109C8E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4452,7 +4452,7 @@
           <xdr:cNvPr id="41" name="矩形 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE139778-E14D-C3FC-A0C6-DCE2232AADE1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1D56E0-384B-FA60-328E-4E287911EC7E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4513,7 +4513,7 @@
         <xdr:cNvPr id="42" name="直接箭头连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E9B568-5D80-4E0C-8C49-9A35E8157B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BBA9B9-82EE-479B-A95E-DA6D4D74821E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4521,8 +4521,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2033588" y="45450443"/>
-          <a:ext cx="386715" cy="247650"/>
+          <a:off x="2027238" y="46404213"/>
+          <a:ext cx="396875" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4562,7 +4562,7 @@
         <xdr:cNvPr id="43" name="直接箭头连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CFABB6-93A7-4403-80A8-D18FDAF4351C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAC5612-18A5-47E5-9240-85F9A66EDECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,8 +4570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2290762" y="45440918"/>
-          <a:ext cx="415290" cy="276225"/>
+          <a:off x="2284412" y="46394688"/>
+          <a:ext cx="425450" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4611,7 +4611,7 @@
         <xdr:cNvPr id="44" name="TextBox 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC11F80-ABF2-4D1B-B2DA-DF163D60A2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC80AA2-A8EB-484E-9FD4-DC2AEF737D99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,8 +4619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2207895" y="45767625"/>
-          <a:ext cx="962025" cy="245745"/>
+          <a:off x="2206625" y="46726475"/>
+          <a:ext cx="962025" cy="250825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4681,7 +4681,7 @@
         <xdr:cNvPr id="45" name="矩形 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C41B86D-B6E9-4D91-BD48-5CBB2359CAFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C39D6E-7D86-404E-A45D-73C8210D8838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4689,8 +4689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4262811" y="44740996"/>
-          <a:ext cx="240610" cy="825610"/>
+          <a:off x="4261541" y="45674446"/>
+          <a:ext cx="240610" cy="845930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4738,7 +4738,7 @@
         <xdr:cNvPr id="46" name="矩形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A31B227-BE36-450C-A283-9C8B284683A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C41C40D-9FBD-4054-987B-25030DF6180B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4746,8 +4746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440766" y="44794833"/>
-          <a:ext cx="219808" cy="528417"/>
+          <a:off x="1439496" y="45728283"/>
+          <a:ext cx="219808" cy="543657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4795,7 +4795,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B25CADB-40FD-4B43-8405-4015D368D859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905F0070-792A-40DB-B033-813656373D92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,8 +4803,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1667902" y="45263386"/>
-          <a:ext cx="674077" cy="491784"/>
+          <a:off x="1666632" y="46206996"/>
+          <a:ext cx="674077" cy="507024"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4839,7 +4839,7 @@
         <xdr:cNvPr id="48" name="TextBox 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E374F17E-0E57-43B0-B4E2-DFA2156192E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4867FF70-F051-45CD-9419-662FF9138D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4847,7 +4847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922395" y="68244720"/>
+          <a:off x="3921125" y="69500750"/>
           <a:ext cx="194454" cy="274008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4899,7 +4899,7 @@
         <xdr:cNvPr id="49" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899FE7D5-6EB1-4D50-8CC0-319F19D61B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F42611-E62A-4110-B0C7-E66EF0773489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,8 +4922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817370" y="3799812"/>
-          <a:ext cx="152400" cy="177828"/>
+          <a:off x="1816100" y="3823942"/>
+          <a:ext cx="152400" cy="182908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4964,7 +4964,7 @@
         <xdr:cNvPr id="50" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2636B1BC-B5A5-4D54-9FF8-AC1072FB4799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E40CD2-3924-46A8-AF6A-8F0B45435239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,8 +4987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5952490" y="27513915"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="5951220" y="28063825"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5029,7 +5029,7 @@
         <xdr:cNvPr id="51" name="CheckBox4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B871CE-EC15-40A2-88CA-4A51E9954AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A362F37-234F-4BB2-BDA5-87E4CBE911A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,8 +5052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036445" y="32327850"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="2035175" y="32994600"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5094,7 +5094,7 @@
         <xdr:cNvPr id="52" name="Picture 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964A87DF-F54C-48EC-85FE-A9A55D1CE731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9540043-E4B3-494F-991A-54532CEF6DD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,7 +5117,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036445" y="27485340"/>
+          <a:off x="2035175" y="28035250"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5159,7 +5159,7 @@
         <xdr:cNvPr id="53" name="TextBox 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449D1E2A-29A2-41B0-857B-F8FAD3EE3B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB4451C-B858-44EE-88E8-B38464DDF51A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,8 +5167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445442" y="21705404"/>
-          <a:ext cx="1552576" cy="664099"/>
+          <a:off x="4444172" y="22130854"/>
+          <a:ext cx="1552576" cy="684419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5233,7 +5233,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F659A34A-20CC-4C6B-99E0-9E53B971CD95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DD7417-3983-425E-8EF6-2AA7CD68216F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5243,8 +5243,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2590138" y="22037454"/>
-          <a:ext cx="1855304" cy="369321"/>
+          <a:off x="2588868" y="22473064"/>
+          <a:ext cx="1855304" cy="379481"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5284,7 +5284,7 @@
         <xdr:cNvPr id="55" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D010A568-AF94-477E-BEF9-A3ED134072C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73313131-F868-488A-8CDE-40E17200BC46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,8 +5307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4056159" y="3804368"/>
-          <a:ext cx="152400" cy="180312"/>
+          <a:off x="4054889" y="3828498"/>
+          <a:ext cx="152400" cy="185392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5349,7 +5349,7 @@
         <xdr:cNvPr id="56" name="直接连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED49349C-8691-4243-9FF4-F7C0AA0DEE4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C7D8DA-4BE5-4AED-A06C-13B4C285CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,8 +5357,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1273203" y="21424458"/>
-          <a:ext cx="6402456" cy="1353710"/>
+          <a:off x="1271933" y="21844828"/>
+          <a:ext cx="6402456" cy="1389270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5398,7 +5398,7 @@
         <xdr:cNvPr id="57" name="直接连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13112FF9-4CF7-4B23-8848-12CEA7C41DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C47BB01-8E2E-42C7-B8CD-144AA147F416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,8 +5406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1250675" y="21399610"/>
-          <a:ext cx="6433267" cy="1353710"/>
+          <a:off x="1250675" y="21819980"/>
+          <a:ext cx="6431997" cy="1389270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5447,7 +5447,7 @@
         <xdr:cNvPr id="58" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA45FE8F-CA25-4050-963C-2D476A5768B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792198D5-DCA3-48D3-A489-C4AA324A8B06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5470,8 +5470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4056159" y="32341931"/>
-          <a:ext cx="152400" cy="180312"/>
+          <a:off x="4054889" y="33008681"/>
+          <a:ext cx="152400" cy="185392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5512,7 +5512,7 @@
         <xdr:cNvPr id="59" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40637F76-D971-427C-BF02-3054F6284B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8646C513-3179-4BBA-84DA-7B1E6B829727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5535,8 +5535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4063613" y="27530480"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4062343" y="28080390"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5577,7 +5577,7 @@
         <xdr:cNvPr id="60" name="图片 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9CB9B5-A76E-4FC2-8CD0-79AD618F8611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B76823D-9FAC-486D-ACBF-CA75818D7D62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5593,8 +5593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3373755" y="26122630"/>
-          <a:ext cx="1631675" cy="1256864"/>
+          <a:off x="3372485" y="26636980"/>
+          <a:ext cx="1631675" cy="1287344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5616,7 +5616,7 @@
         <xdr:cNvPr id="61" name="TextBox 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C966537-20CF-420F-B32A-13F64E4856F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBA5FF5-2A28-400B-81B9-CC811F60CA00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5624,7 +5624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922395" y="69235320"/>
+          <a:off x="3921125" y="70453250"/>
           <a:ext cx="194454" cy="274008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5676,7 +5676,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234D4AF4-8E2A-43BB-AC85-BFC6E218D89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8F5F05-BBFE-4700-BBAF-9BACBD80B25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5692,8 +5692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5406390" y="28766135"/>
-          <a:ext cx="2049145" cy="1658620"/>
+          <a:off x="5405120" y="29346525"/>
+          <a:ext cx="2049145" cy="1699260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5724,7 +5724,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B042B71-AFA7-4938-A475-B3A6150D8E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12312E40-CC35-47F8-85EC-40056F69A37C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5740,8 +5740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341755" y="41589960"/>
-          <a:ext cx="3619500" cy="1490980"/>
+          <a:off x="1340485" y="42457370"/>
+          <a:ext cx="3619500" cy="1531620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5767,7 +5767,7 @@
         <xdr:cNvPr id="64" name="TextBox 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CA4830-3D3C-40B2-8FBF-D37C6D7B803C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227A068E-2C5C-450D-93FE-9CD1A2886A4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5775,7 +5775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922395" y="61950600"/>
+          <a:off x="3921125" y="63112650"/>
           <a:ext cx="194454" cy="274008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5925,7 +5925,7 @@
         <xdr:cNvPr id="65" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA83FF0-88D9-4BDB-B7C6-1A336D5ED50F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA738C53-E45E-420E-AE41-96E20A1D7FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,8 +5948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5955665" y="32335470"/>
-          <a:ext cx="152400" cy="180340"/>
+          <a:off x="5954395" y="33002220"/>
+          <a:ext cx="152400" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5990,7 +5990,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16509E87-8656-430B-9DB7-B2830511A7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E08CFD-9865-4C19-B50A-8940E6D92FF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6006,8 +6006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1315085" y="58261885"/>
-          <a:ext cx="3261995" cy="3180080"/>
+          <a:off x="1313815" y="59337575"/>
+          <a:ext cx="3261995" cy="3261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6038,7 +6038,7 @@
         <xdr:cNvPr id="67" name="图片 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0772CED-0A1F-4686-BCFB-F8F5B0F2396A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1CBC55-7250-4239-B78A-10D101CC3C29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6054,8 +6054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4727575" y="58780045"/>
-          <a:ext cx="4865370" cy="2146300"/>
+          <a:off x="4726305" y="59870975"/>
+          <a:ext cx="4864100" cy="2197100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6081,7 +6081,7 @@
         <xdr:cNvPr id="68" name="TextBox 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E0F7C9-4CA8-492E-89D4-5E1BFF6B3FA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88B6D6F-25C3-43B9-B8B5-9B56F3A83880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6089,7 +6089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922395" y="69890640"/>
+          <a:off x="3921125" y="71100950"/>
           <a:ext cx="194454" cy="274008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6239,7 +6239,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FB780-3AD1-4FA9-A8A2-CDD7ED7A1335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE25294-C466-406F-8F40-718A0EEE1823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6255,8 +6255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2122170" y="47166530"/>
-          <a:ext cx="3953510" cy="4163060"/>
+          <a:off x="2120900" y="48148240"/>
+          <a:ext cx="3953510" cy="4234180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6287,7 +6287,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9612A0B-A645-4F2B-823F-D13B3A5D6B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89C3547-12DD-48A4-AAFB-B49BC301782D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6303,8 +6303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1496060" y="75576430"/>
-          <a:ext cx="5572760" cy="4582160"/>
+          <a:off x="1494790" y="76581000"/>
+          <a:ext cx="5572760" cy="4406900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6335,7 +6335,7 @@
         <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3449E4A2-4D1B-416D-A437-11578616BF5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA07BD92-8A82-4877-A140-B63F886BECB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,8 +6351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436370" y="81072990"/>
-          <a:ext cx="4914900" cy="2531110"/>
+          <a:off x="1435100" y="81864200"/>
+          <a:ext cx="4914900" cy="2432050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6383,7 +6383,7 @@
         <xdr:cNvPr id="72" name="图片 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03961EE0-3B03-4DD5-8A57-88CE66A65F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2851B96-AD82-40DD-A227-E9BD06F33B2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6399,8 +6399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1379220" y="84036535"/>
-          <a:ext cx="5448300" cy="3404870"/>
+          <a:off x="1377950" y="84713445"/>
+          <a:ext cx="5448300" cy="3275330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6431,7 +6431,7 @@
         <xdr:cNvPr id="73" name="图片 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FBE58A-67F5-490F-8D16-A4E9FD6C8F08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2130C9C-EC4A-45B6-BA8E-5AC66C169168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6447,8 +6447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2007870" y="87417275"/>
-          <a:ext cx="4600575" cy="2165350"/>
+          <a:off x="2006600" y="87964645"/>
+          <a:ext cx="4600575" cy="2081530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6479,7 +6479,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89C9BA2-EF44-4D3D-9EDC-409BA49F449B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59096375-B246-430A-856F-3F36B407EC7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,8 +6495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7828915" y="76200"/>
-          <a:ext cx="4864100" cy="6951980"/>
+          <a:off x="7826375" y="76200"/>
+          <a:ext cx="4864100" cy="7057390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6527,7 +6527,7 @@
         <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0F8BDF-E9AC-4E63-B1D9-4592130E668D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABE43C1-A658-4DB8-8176-DDFBAC065B30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6543,7 +6543,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1321435" y="1177925"/>
+          <a:off x="1320165" y="1191895"/>
           <a:ext cx="3066415" cy="1859280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6575,7 +6575,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04C5824-D0BA-4CDD-995C-B8DB761E805C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6C3E29-4E03-4351-9C39-AD1090E10975}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6591,7 +6591,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4551045" y="1316355"/>
+          <a:off x="4549775" y="1330325"/>
           <a:ext cx="2878455" cy="1689100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6623,7 +6623,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1514AA2-AC3F-43B0-BEA1-E3E597800E24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ECDB51-5669-4F3A-B601-1CB878C7C1FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,8 +6639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331595" y="62236985"/>
-          <a:ext cx="3983990" cy="4557395"/>
+          <a:off x="1330325" y="63404115"/>
+          <a:ext cx="3983990" cy="4636135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6671,7 +6671,7 @@
         <xdr:cNvPr id="78" name="图片 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710998D3-B1CF-4F2B-BDE7-254005493AA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA590929-95EC-4B64-9A72-FD7C8D7F8EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,8 +6687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5694045" y="62540515"/>
-          <a:ext cx="5055870" cy="3922395"/>
+          <a:off x="5692775" y="63712725"/>
+          <a:ext cx="5054600" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6719,7 +6719,7 @@
         <xdr:cNvPr id="79" name="图片 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D331D6D-429B-4331-ADB0-86A9ADC7159F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623CD552-01C4-4EB9-9132-6A2EE79CE9DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6735,8 +6735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693545" y="18161635"/>
-          <a:ext cx="5238750" cy="2598420"/>
+          <a:off x="1692275" y="18500725"/>
+          <a:ext cx="5238750" cy="2664460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6767,7 +6767,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD5498A-6231-4F3E-8BA9-4BC427D88E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CEAB4C-1273-439F-9AB4-A207593ABACC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6783,8 +6783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512570" y="13357225"/>
-          <a:ext cx="2505075" cy="1637030"/>
+          <a:off x="1511300" y="13604875"/>
+          <a:ext cx="2505075" cy="1667510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6815,7 +6815,7 @@
         <xdr:cNvPr id="81" name="图片 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984BC7B3-BBCE-420D-B0CF-9410DED41168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC9839E-63B4-4846-8435-95A73AAFBB2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6831,8 +6831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1322070" y="15179040"/>
-          <a:ext cx="5047615" cy="1866265"/>
+          <a:off x="1320800" y="15457170"/>
+          <a:ext cx="5047615" cy="1901825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6863,7 +6863,7 @@
         <xdr:cNvPr id="82" name="图片 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E093BDA-4CD4-4460-A3E2-72FD5EFCAFAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07B515C-52D6-4665-9ED1-71F3B4C2357B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6879,8 +6879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1906270" y="9190990"/>
-          <a:ext cx="2067560" cy="1344930"/>
+          <a:off x="1905000" y="9337040"/>
+          <a:ext cx="2067560" cy="1380490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6911,7 +6911,7 @@
         <xdr:cNvPr id="83" name="图片 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BD8E6D-A3AF-413A-8EBA-B0CA0D9709BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0F483E-BDC7-47C9-ADB2-19682BCB18FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6927,8 +6927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1649095" y="10659110"/>
-          <a:ext cx="4543425" cy="1671955"/>
+          <a:off x="1647825" y="10840720"/>
+          <a:ext cx="4543425" cy="1717675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6959,7 +6959,7 @@
         <xdr:cNvPr id="84" name="图片 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A112B23-670A-4E22-B589-3BC30AFEAA2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94A3727-F255-4B07-8542-AA1ECDF0F8A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6975,8 +6975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4989195" y="12984480"/>
-          <a:ext cx="2459355" cy="2232660"/>
+          <a:off x="4987925" y="13221970"/>
+          <a:ext cx="2459355" cy="2273300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7007,7 +7007,7 @@
         <xdr:cNvPr id="85" name="图片 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE125B0-199B-4283-9F2B-AF9A10AF2160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A89F501-D9E4-4A46-85E7-6DB396E8B84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7023,8 +7023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="4994910"/>
-          <a:ext cx="4874895" cy="1609090"/>
+          <a:off x="1494155" y="5049520"/>
+          <a:ext cx="4874895" cy="1649730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7055,7 +7055,7 @@
         <xdr:cNvPr id="86" name="图片 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6963E16B-E64F-4B6F-B83A-3E8E0FC4E8F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5A00B5-0137-441C-BCE8-7FAA80B8D9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7071,8 +7071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1769745" y="6678930"/>
-          <a:ext cx="3562985" cy="1131570"/>
+          <a:off x="1768475" y="6774180"/>
+          <a:ext cx="3562985" cy="1151890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7103,7 +7103,7 @@
         <xdr:cNvPr id="87" name="图片 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8A46D8-1323-4F54-9AD8-B09B7FE7C7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01718D51-363B-43D7-86C1-414808066D3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7119,8 +7119,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1637665" y="70129400"/>
-          <a:ext cx="5209540" cy="4955540"/>
+          <a:off x="1636395" y="71339710"/>
+          <a:ext cx="5209540" cy="4765040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7151,7 +7151,7 @@
         <xdr:cNvPr id="88" name="图片 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3DA4E3-B276-4F6C-A8C1-B2E960D8DAB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31827E46-C1E1-408E-A2DA-97274A412629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,8 +7167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1655445" y="28453715"/>
-          <a:ext cx="3190240" cy="2199640"/>
+          <a:off x="1654175" y="29023945"/>
+          <a:ext cx="3190240" cy="2255520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7199,7 +7199,7 @@
         <xdr:cNvPr id="89" name="图片 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198BEB98-9E8A-4729-A11D-3B44B19B0719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D00D4E-1ADF-4FC4-BBC9-1271A382CB36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7215,8 +7215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787640" y="24291925"/>
-          <a:ext cx="4076700" cy="2599055"/>
+          <a:off x="7785100" y="24785955"/>
+          <a:ext cx="4076700" cy="2639695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7247,7 +7247,7 @@
         <xdr:cNvPr id="90" name="图片 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2CE41B-7A2D-4239-AD37-3B2959C3AC73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0F93DB-E89B-4026-BC00-53100D2B2225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7263,8 +7263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1293495" y="39183945"/>
-          <a:ext cx="4335145" cy="1776095"/>
+          <a:off x="1292225" y="39990395"/>
+          <a:ext cx="4335145" cy="1821815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7295,7 +7295,7 @@
         <xdr:cNvPr id="91" name="图片 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1FFA01-CA3C-4B58-844E-91DEBED8A0B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE54834-A5D9-41BB-9DD7-1748C6F78D7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,8 +7311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2310765" y="33180020"/>
-          <a:ext cx="3290570" cy="1667510"/>
+          <a:off x="2309495" y="33862010"/>
+          <a:ext cx="3290570" cy="1703070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7343,7 +7343,7 @@
         <xdr:cNvPr id="92" name="图片 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E54056-E4A8-408D-9757-946B1CE49DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697AFA35-B2F2-49A5-AA8E-2462C31B9EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,8 +7359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1826895" y="35708590"/>
-          <a:ext cx="4543425" cy="1692910"/>
+          <a:off x="1825625" y="36446460"/>
+          <a:ext cx="4543425" cy="1738630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7391,7 +7391,7 @@
         <xdr:cNvPr id="93" name="图片 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA941F5-4E06-4F39-B49F-435AC2ABD1A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EA6F6C-FA40-4C9C-971E-2851E83238C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7407,8 +7407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5646420" y="39206805"/>
-          <a:ext cx="2942590" cy="3790315"/>
+          <a:off x="5645150" y="40013255"/>
+          <a:ext cx="2941320" cy="3886835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7439,7 +7439,7 @@
         <xdr:cNvPr id="94" name="图片 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0B216B-EF9A-4AA5-8D3B-12DEE76976C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037DB4CE-BB9D-4ABC-BE53-389AA7F49EC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +7455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2175510" y="52807870"/>
+          <a:off x="2174240" y="53875940"/>
           <a:ext cx="3528695" cy="2212340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7487,7 +7487,7 @@
         <xdr:cNvPr id="95" name="图片 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363DB5D7-97D2-4135-8495-BE36DAA3E71F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65779C22-B136-4613-ADDD-42723E8992C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7503,8 +7503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7784465" y="70464045"/>
-          <a:ext cx="5840095" cy="4243705"/>
+          <a:off x="7781925" y="71666735"/>
+          <a:ext cx="5840095" cy="4076065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13115,7 +13115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3D292-C064-457D-BE0F-A7380618D68D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30DAE43-ADF6-486D-849B-DB00CC6605EE}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13125,14 +13125,14 @@
       <selection activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="94" style="134" customWidth="1"/>
-    <col min="3" max="16384" width="10" style="2"/>
+    <col min="1" max="1" width="18.08984375" style="94" customWidth="1"/>
+    <col min="2" max="2" width="92.26953125" style="134" customWidth="1"/>
+    <col min="3" max="16384" width="9.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13148,7 +13148,7 @@
       <c r="B2" s="5"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
     </row>
@@ -13210,7 +13210,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
@@ -13218,105 +13218,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
@@ -13324,153 +13324,153 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="23"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="24"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="24"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="24"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="24"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="24"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="24"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="24"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="24"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="24"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="24"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="24"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
     </row>
-    <row r="59" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="30"/>
     </row>
-    <row r="61" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="31"/>
     </row>
-    <row r="62" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="31"/>
     </row>
-    <row r="63" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="31"/>
     </row>
-    <row r="64" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="31"/>
     </row>
-    <row r="65" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="31"/>
     </row>
-    <row r="69" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="31"/>
     </row>
-    <row r="70" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="31"/>
     </row>
-    <row r="71" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="31"/>
     </row>
-    <row r="72" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="31"/>
     </row>
-    <row r="73" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="31"/>
     </row>
-    <row r="74" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="31"/>
     </row>
-    <row r="75" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="32"/>
     </row>
-    <row r="76" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -13478,75 +13478,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="30"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="31"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="31"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="31"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="31"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="31"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="31"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="31"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="31"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="31"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="31"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="31"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="31"/>
     </row>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="32"/>
     </row>
-    <row r="94" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="13"/>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="34" t="s">
         <v>18</v>
       </c>
@@ -13554,35 +13554,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="36"/>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="37"/>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="37"/>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="37"/>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="37"/>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
     </row>
-    <row r="102" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>20</v>
       </c>
@@ -13590,27 +13590,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="23"/>
     </row>
-    <row r="105" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="24"/>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="24"/>
     </row>
-    <row r="107" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="26"/>
     </row>
@@ -13620,7 +13620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="43"/>
     </row>
@@ -13630,7 +13630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
       <c r="B113" s="45"/>
     </row>
@@ -13638,7 +13638,7 @@
       <c r="A114" s="12"/>
       <c r="B114" s="47"/>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
         <v>24</v>
       </c>
@@ -13646,107 +13646,107 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="49"/>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="49"/>
     </row>
-    <row r="119" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="49"/>
     </row>
-    <row r="120" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="49"/>
     </row>
-    <row r="121" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="49"/>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="49"/>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="49"/>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="50"/>
     </row>
-    <row r="125" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="54"/>
     </row>
-    <row r="129" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="54"/>
     </row>
-    <row r="130" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="54"/>
     </row>
-    <row r="131" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="54"/>
     </row>
-    <row r="132" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="54"/>
     </row>
-    <row r="133" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="54"/>
     </row>
-    <row r="134" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="54"/>
     </row>
-    <row r="135" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="54"/>
     </row>
-    <row r="136" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="54"/>
     </row>
-    <row r="137" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="54"/>
     </row>
-    <row r="138" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="54"/>
     </row>
-    <row r="139" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="55"/>
     </row>
@@ -13754,7 +13754,7 @@
       <c r="A140" s="12"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>30</v>
       </c>
@@ -13762,45 +13762,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="56"/>
       <c r="B142" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="56"/>
       <c r="B143" s="57"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="56"/>
       <c r="B144" s="57"/>
     </row>
-    <row r="145" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="56"/>
       <c r="B145" s="57"/>
     </row>
-    <row r="146" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="56"/>
       <c r="B146" s="57"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="56"/>
       <c r="B147" s="57"/>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="56"/>
       <c r="B148" s="58"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="56"/>
       <c r="B149" s="59"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="56"/>
       <c r="B150" s="60"/>
     </row>
-    <row r="151" spans="1:2" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="56"/>
       <c r="B151" s="61" t="s">
         <v>32</v>
@@ -13810,43 +13810,43 @@
       <c r="A152" s="56"/>
       <c r="B152" s="59"/>
     </row>
-    <row r="153" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="56"/>
       <c r="B153" s="62"/>
     </row>
-    <row r="154" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="56"/>
       <c r="B154" s="63"/>
     </row>
-    <row r="155" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="56"/>
       <c r="B155" s="64"/>
     </row>
-    <row r="156" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="56"/>
       <c r="B156" s="64"/>
     </row>
-    <row r="157" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="56"/>
       <c r="B157" s="64"/>
     </row>
-    <row r="158" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="56"/>
       <c r="B158" s="64"/>
     </row>
-    <row r="159" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="56"/>
       <c r="B159" s="64"/>
     </row>
-    <row r="160" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="56"/>
       <c r="B160" s="65"/>
     </row>
-    <row r="161" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
     </row>
-    <row r="162" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="66" t="s">
         <v>33</v>
       </c>
@@ -13854,49 +13854,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="66"/>
       <c r="B163" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="66"/>
       <c r="B164" s="68"/>
     </row>
-    <row r="165" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="66"/>
       <c r="B165" s="69"/>
     </row>
-    <row r="166" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="66"/>
       <c r="B166" s="69"/>
     </row>
-    <row r="167" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="66"/>
       <c r="B167" s="69"/>
     </row>
-    <row r="168" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="66"/>
       <c r="B168" s="69"/>
     </row>
-    <row r="169" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="66"/>
       <c r="B169" s="69"/>
     </row>
-    <row r="170" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="66"/>
       <c r="B170" s="69"/>
     </row>
-    <row r="171" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="66"/>
       <c r="B171" s="69"/>
     </row>
-    <row r="172" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="66"/>
       <c r="B172" s="69"/>
     </row>
-    <row r="173" spans="1:2" s="46" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="70"/>
     </row>
@@ -13904,7 +13904,7 @@
       <c r="A174" s="12"/>
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="66" t="s">
         <v>36</v>
       </c>
@@ -13912,113 +13912,113 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="66"/>
       <c r="B176" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="46" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="66"/>
       <c r="B177" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="66"/>
       <c r="B178" s="73"/>
     </row>
-    <row r="179" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="66"/>
       <c r="B179" s="74"/>
     </row>
-    <row r="180" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="66"/>
       <c r="B180" s="74"/>
     </row>
-    <row r="181" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="66"/>
       <c r="B181" s="74"/>
     </row>
-    <row r="182" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="66"/>
       <c r="B182" s="74"/>
     </row>
-    <row r="183" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="66"/>
       <c r="B183" s="74"/>
     </row>
-    <row r="184" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="66"/>
       <c r="B184" s="74"/>
     </row>
-    <row r="185" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="66"/>
       <c r="B185" s="74"/>
     </row>
-    <row r="186" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="66"/>
       <c r="B186" s="75"/>
     </row>
-    <row r="187" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="66"/>
       <c r="B187" s="75"/>
     </row>
-    <row r="188" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="66"/>
       <c r="B188" s="75"/>
     </row>
-    <row r="189" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="66"/>
       <c r="B189" s="75"/>
     </row>
-    <row r="190" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="66"/>
       <c r="B190" s="75"/>
     </row>
-    <row r="191" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="66"/>
       <c r="B191" s="75"/>
     </row>
-    <row r="192" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="66"/>
       <c r="B192" s="75"/>
     </row>
-    <row r="193" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="66"/>
       <c r="B193" s="75"/>
     </row>
-    <row r="194" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="66"/>
       <c r="B194" s="75"/>
     </row>
-    <row r="195" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="66"/>
       <c r="B195" s="75"/>
     </row>
-    <row r="196" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="66"/>
       <c r="B196" s="75"/>
     </row>
-    <row r="197" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="66"/>
       <c r="B197" s="75"/>
     </row>
-    <row r="198" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="66"/>
       <c r="B198" s="75"/>
     </row>
-    <row r="199" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="66"/>
       <c r="B199" s="76"/>
     </row>
-    <row r="200" spans="1:4" s="80" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" s="80" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="77"/>
       <c r="B200" s="78"/>
       <c r="C200" s="79"/>
       <c r="D200" s="79"/>
     </row>
-    <row r="201" spans="1:4" s="80" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" s="80" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="81" t="s">
         <v>40</v>
       </c>
@@ -14028,7 +14028,7 @@
       <c r="C201" s="79"/>
       <c r="D201" s="79"/>
     </row>
-    <row r="202" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="83"/>
       <c r="B202" s="84" t="s">
         <v>42</v>
@@ -14036,7 +14036,7 @@
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
     </row>
-    <row r="203" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="83"/>
       <c r="B203" s="86" t="s">
         <v>43</v>
@@ -14044,67 +14044,67 @@
       <c r="C203" s="46"/>
       <c r="D203" s="46"/>
     </row>
-    <row r="204" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="83"/>
       <c r="B204" s="87"/>
       <c r="C204" s="46"/>
       <c r="D204" s="46"/>
     </row>
-    <row r="205" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="83"/>
       <c r="B205" s="88"/>
       <c r="C205" s="46"/>
       <c r="D205" s="46"/>
     </row>
-    <row r="206" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="83"/>
       <c r="B206" s="88"/>
       <c r="C206" s="46"/>
       <c r="D206" s="46"/>
     </row>
-    <row r="207" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="83"/>
       <c r="B207" s="88"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
     </row>
-    <row r="208" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="83"/>
       <c r="B208" s="88"/>
       <c r="C208" s="46"/>
       <c r="D208" s="46"/>
     </row>
-    <row r="209" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="83"/>
       <c r="B209" s="89"/>
       <c r="C209" s="46"/>
       <c r="D209" s="46"/>
     </row>
-    <row r="210" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="83"/>
       <c r="B210" s="90"/>
       <c r="C210" s="46"/>
       <c r="D210" s="46"/>
     </row>
-    <row r="211" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="83"/>
       <c r="B211" s="90"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
     </row>
-    <row r="212" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="91"/>
       <c r="B212" s="92"/>
       <c r="C212" s="46"/>
       <c r="D212" s="46"/>
     </row>
-    <row r="213" spans="1:4" s="80" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" s="80" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="77"/>
       <c r="B213" s="78"/>
       <c r="C213" s="79"/>
       <c r="D213" s="79"/>
     </row>
-    <row r="214" spans="1:4" s="94" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" s="94" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>44</v>
       </c>
@@ -14120,103 +14120,103 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" s="94" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" s="94" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="95"/>
       <c r="B216" s="96"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" s="94" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" s="94" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="95"/>
       <c r="B217" s="96"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" s="94" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" s="94" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="95"/>
       <c r="B218" s="96"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="95"/>
       <c r="B219" s="97"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="95"/>
       <c r="B220" s="98"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="95"/>
       <c r="B221" s="98"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="95"/>
       <c r="B222" s="98"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="95"/>
       <c r="B223" s="98"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="95"/>
       <c r="B224" s="98"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="95"/>
       <c r="B225" s="98"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="95"/>
       <c r="B226" s="98"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="95"/>
       <c r="B227" s="98"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="95"/>
       <c r="B228" s="98"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="95"/>
       <c r="B229" s="98"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="95"/>
       <c r="B230" s="99"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="95"/>
       <c r="B231" s="100"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" s="94" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" s="94" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="95"/>
       <c r="B232" s="101"/>
       <c r="C232" s="2"/>
@@ -14264,7 +14264,7 @@
       <c r="C238" s="46"/>
       <c r="D238" s="46"/>
     </row>
-    <row r="239" spans="1:4" s="85" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" s="85" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="106"/>
       <c r="B239" s="110" t="s">
         <v>49</v>
@@ -14272,7 +14272,7 @@
       <c r="C239" s="46"/>
       <c r="D239" s="46"/>
     </row>
-    <row r="240" spans="1:4" s="85" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" s="85" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="106"/>
       <c r="B240" s="110" t="s">
         <v>50</v>
@@ -14294,103 +14294,103 @@
       <c r="C242" s="46"/>
       <c r="D242" s="46"/>
     </row>
-    <row r="243" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="106"/>
       <c r="B243" s="112"/>
       <c r="C243" s="46"/>
       <c r="D243" s="46"/>
     </row>
-    <row r="244" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="106"/>
       <c r="B244" s="113"/>
       <c r="C244" s="46"/>
       <c r="D244" s="46"/>
     </row>
-    <row r="245" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="106"/>
       <c r="B245" s="113"/>
       <c r="C245" s="46"/>
       <c r="D245" s="46"/>
     </row>
-    <row r="246" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="106"/>
       <c r="B246" s="113"/>
       <c r="C246" s="46"/>
       <c r="D246" s="46"/>
     </row>
-    <row r="247" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="106"/>
       <c r="B247" s="113"/>
       <c r="C247" s="46"/>
       <c r="D247" s="46"/>
     </row>
-    <row r="248" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="106"/>
       <c r="B248" s="113"/>
       <c r="C248" s="46"/>
       <c r="D248" s="46"/>
     </row>
-    <row r="249" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="106"/>
       <c r="B249" s="113"/>
       <c r="C249" s="46"/>
       <c r="D249" s="46"/>
     </row>
-    <row r="250" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="106"/>
       <c r="B250" s="113"/>
       <c r="C250" s="46"/>
       <c r="D250" s="46"/>
     </row>
-    <row r="251" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="106"/>
       <c r="B251" s="113"/>
       <c r="C251" s="46"/>
       <c r="D251" s="46"/>
     </row>
-    <row r="252" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="106"/>
       <c r="B252" s="113"/>
       <c r="C252" s="46"/>
       <c r="D252" s="46"/>
     </row>
-    <row r="253" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="106"/>
       <c r="B253" s="113"/>
       <c r="C253" s="46"/>
       <c r="D253" s="46"/>
     </row>
-    <row r="254" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="106"/>
       <c r="B254" s="113"/>
       <c r="C254" s="46"/>
       <c r="D254" s="46"/>
     </row>
-    <row r="255" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="106"/>
       <c r="B255" s="113"/>
       <c r="C255" s="46"/>
       <c r="D255" s="46"/>
     </row>
-    <row r="256" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="106"/>
       <c r="B256" s="113"/>
       <c r="C256" s="46"/>
       <c r="D256" s="46"/>
     </row>
-    <row r="257" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="106"/>
       <c r="B257" s="113"/>
       <c r="C257" s="46"/>
       <c r="D257" s="46"/>
     </row>
-    <row r="258" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="106"/>
       <c r="B258" s="113"/>
       <c r="C258" s="46"/>
       <c r="D258" s="46"/>
     </row>
-    <row r="259" spans="1:4" s="85" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" s="85" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="114"/>
       <c r="B259" s="113"/>
       <c r="C259" s="46"/>
@@ -14400,87 +14400,87 @@
       <c r="A260" s="115"/>
       <c r="B260" s="116"/>
     </row>
-    <row r="261" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="117" t="s">
         <v>52</v>
       </c>
       <c r="B261" s="118"/>
     </row>
-    <row r="262" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="119"/>
       <c r="B262" s="112"/>
     </row>
-    <row r="263" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="119"/>
       <c r="B263" s="113"/>
     </row>
-    <row r="264" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="119"/>
       <c r="B264" s="113"/>
     </row>
-    <row r="265" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="119"/>
       <c r="B265" s="113"/>
     </row>
-    <row r="266" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="119"/>
       <c r="B266" s="113"/>
     </row>
-    <row r="267" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="119"/>
       <c r="B267" s="113"/>
     </row>
-    <row r="268" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="119"/>
       <c r="B268" s="113"/>
     </row>
-    <row r="269" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="119"/>
       <c r="B269" s="113"/>
     </row>
-    <row r="270" spans="1:4" s="46" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" s="46" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="119"/>
       <c r="B270" s="113"/>
     </row>
-    <row r="271" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="119"/>
       <c r="B271" s="113"/>
     </row>
-    <row r="272" spans="1:4" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="119"/>
       <c r="B272" s="113"/>
     </row>
-    <row r="273" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="119"/>
       <c r="B273" s="113"/>
     </row>
-    <row r="274" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="119"/>
       <c r="B274" s="113"/>
     </row>
-    <row r="275" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="119"/>
       <c r="B275" s="113"/>
     </row>
-    <row r="276" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="119"/>
       <c r="B276" s="113"/>
     </row>
-    <row r="277" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="119"/>
       <c r="B277" s="113"/>
     </row>
-    <row r="278" spans="1:2" s="46" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="119"/>
       <c r="B278" s="120"/>
     </row>
-    <row r="279" spans="1:2" s="46" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" s="46" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="119"/>
       <c r="B279" s="121" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="280" spans="1:2" s="46" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" s="46" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="119"/>
       <c r="B280" s="122" t="s">
         <v>54</v>
@@ -14510,7 +14510,7 @@
       <c r="A285" s="124"/>
       <c r="B285" s="125"/>
     </row>
-    <row r="286" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A286" s="126"/>
       <c r="B286" s="127"/>
     </row>
@@ -14974,7 +14974,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{DA0C74BB-8CB6-42FE-B3EE-CFC3B39A2B9F}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{03B84A68-229C-4B85-B58A-BED0A2E8A7D6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
